--- a/INTLINE/data/193/ABS/530202.xlsx
+++ b/INTLINE/data/193/ABS/530202.xlsx
@@ -12,62 +12,62 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A3484235K">Data1!$B$1:$B$10,Data1!$B$11:$B$144</definedName>
-    <definedName name="A3484235K_Data">Data1!$B$11:$B$144</definedName>
-    <definedName name="A3484235K_Latest">Data1!$B$144</definedName>
-    <definedName name="A3484236L">Data1!$C$1:$C$10,Data1!$C$11:$C$144</definedName>
-    <definedName name="A3484236L_Data">Data1!$C$11:$C$144</definedName>
-    <definedName name="A3484236L_Latest">Data1!$C$144</definedName>
-    <definedName name="A3484237R">Data1!$D$1:$D$10,Data1!$D$11:$D$144</definedName>
-    <definedName name="A3484237R_Data">Data1!$D$11:$D$144</definedName>
-    <definedName name="A3484237R_Latest">Data1!$D$144</definedName>
-    <definedName name="A3484238T">Data1!$E$1:$E$10,Data1!$E$11:$E$144</definedName>
-    <definedName name="A3484238T_Data">Data1!$E$11:$E$144</definedName>
-    <definedName name="A3484238T_Latest">Data1!$E$144</definedName>
-    <definedName name="A3484239V">Data1!$F$1:$F$10,Data1!$F$11:$F$144</definedName>
-    <definedName name="A3484239V_Data">Data1!$F$11:$F$144</definedName>
-    <definedName name="A3484239V_Latest">Data1!$F$144</definedName>
-    <definedName name="A3484240C">Data1!$G$1:$G$10,Data1!$G$11:$G$144</definedName>
-    <definedName name="A3484240C_Data">Data1!$G$11:$G$144</definedName>
-    <definedName name="A3484240C_Latest">Data1!$G$144</definedName>
-    <definedName name="A3484241F">Data1!$H$1:$H$10,Data1!$H$11:$H$144</definedName>
-    <definedName name="A3484241F_Data">Data1!$H$11:$H$144</definedName>
-    <definedName name="A3484241F_Latest">Data1!$H$144</definedName>
-    <definedName name="A3484242J">Data1!$I$1:$I$10,Data1!$I$11:$I$144</definedName>
-    <definedName name="A3484242J_Data">Data1!$I$11:$I$144</definedName>
-    <definedName name="A3484242J_Latest">Data1!$I$144</definedName>
-    <definedName name="A3484243K">Data1!$J$1:$J$10,Data1!$J$11:$J$144</definedName>
-    <definedName name="A3484243K_Data">Data1!$J$11:$J$144</definedName>
-    <definedName name="A3484243K_Latest">Data1!$J$144</definedName>
-    <definedName name="A3484244L">Data1!$K$1:$K$10,Data1!$K$11:$K$144</definedName>
-    <definedName name="A3484244L_Data">Data1!$K$11:$K$144</definedName>
-    <definedName name="A3484244L_Latest">Data1!$K$144</definedName>
-    <definedName name="A3484245R">Data1!$L$1:$L$10,Data1!$L$11:$L$144</definedName>
-    <definedName name="A3484245R_Data">Data1!$L$11:$L$144</definedName>
-    <definedName name="A3484245R_Latest">Data1!$L$144</definedName>
-    <definedName name="A3484246T">Data1!$M$1:$M$10,Data1!$M$11:$M$144</definedName>
-    <definedName name="A3484246T_Data">Data1!$M$11:$M$144</definedName>
-    <definedName name="A3484246T_Latest">Data1!$M$144</definedName>
-    <definedName name="A3484247V">Data1!$N$1:$N$10,Data1!$N$11:$N$144</definedName>
-    <definedName name="A3484247V_Data">Data1!$N$11:$N$144</definedName>
-    <definedName name="A3484247V_Latest">Data1!$N$144</definedName>
-    <definedName name="A3484248W">Data1!$O$1:$O$10,Data1!$O$11:$O$144</definedName>
-    <definedName name="A3484248W_Data">Data1!$O$11:$O$144</definedName>
-    <definedName name="A3484248W_Latest">Data1!$O$144</definedName>
-    <definedName name="A3484249X">Data1!$P$1:$P$10,Data1!$P$11:$P$144</definedName>
-    <definedName name="A3484249X_Data">Data1!$P$11:$P$144</definedName>
-    <definedName name="A3484249X_Latest">Data1!$P$144</definedName>
-    <definedName name="A3484250J">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$144</definedName>
-    <definedName name="A3484250J_Data">Data1!$Q$11:$Q$144</definedName>
-    <definedName name="A3484250J_Latest">Data1!$Q$144</definedName>
-    <definedName name="A3484251K">Data1!$R$1:$R$10,Data1!$R$11:$R$144</definedName>
-    <definedName name="A3484251K_Data">Data1!$R$11:$R$144</definedName>
-    <definedName name="A3484251K_Latest">Data1!$R$144</definedName>
-    <definedName name="A3484252L">Data1!$S$1:$S$10,Data1!$S$11:$S$144</definedName>
-    <definedName name="A3484252L_Data">Data1!$S$11:$S$144</definedName>
-    <definedName name="A3484252L_Latest">Data1!$S$144</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$144</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$144</definedName>
+    <definedName name="A3484235K">Data1!$B$1:$B$10,Data1!$B$11:$B$145</definedName>
+    <definedName name="A3484235K_Data">Data1!$B$11:$B$145</definedName>
+    <definedName name="A3484235K_Latest">Data1!$B$145</definedName>
+    <definedName name="A3484236L">Data1!$C$1:$C$10,Data1!$C$11:$C$145</definedName>
+    <definedName name="A3484236L_Data">Data1!$C$11:$C$145</definedName>
+    <definedName name="A3484236L_Latest">Data1!$C$145</definedName>
+    <definedName name="A3484237R">Data1!$D$1:$D$10,Data1!$D$11:$D$145</definedName>
+    <definedName name="A3484237R_Data">Data1!$D$11:$D$145</definedName>
+    <definedName name="A3484237R_Latest">Data1!$D$145</definedName>
+    <definedName name="A3484238T">Data1!$E$1:$E$10,Data1!$E$11:$E$145</definedName>
+    <definedName name="A3484238T_Data">Data1!$E$11:$E$145</definedName>
+    <definedName name="A3484238T_Latest">Data1!$E$145</definedName>
+    <definedName name="A3484239V">Data1!$F$1:$F$10,Data1!$F$11:$F$145</definedName>
+    <definedName name="A3484239V_Data">Data1!$F$11:$F$145</definedName>
+    <definedName name="A3484239V_Latest">Data1!$F$145</definedName>
+    <definedName name="A3484240C">Data1!$G$1:$G$10,Data1!$G$11:$G$145</definedName>
+    <definedName name="A3484240C_Data">Data1!$G$11:$G$145</definedName>
+    <definedName name="A3484240C_Latest">Data1!$G$145</definedName>
+    <definedName name="A3484241F">Data1!$H$1:$H$10,Data1!$H$11:$H$145</definedName>
+    <definedName name="A3484241F_Data">Data1!$H$11:$H$145</definedName>
+    <definedName name="A3484241F_Latest">Data1!$H$145</definedName>
+    <definedName name="A3484242J">Data1!$I$1:$I$10,Data1!$I$11:$I$145</definedName>
+    <definedName name="A3484242J_Data">Data1!$I$11:$I$145</definedName>
+    <definedName name="A3484242J_Latest">Data1!$I$145</definedName>
+    <definedName name="A3484243K">Data1!$J$1:$J$10,Data1!$J$11:$J$145</definedName>
+    <definedName name="A3484243K_Data">Data1!$J$11:$J$145</definedName>
+    <definedName name="A3484243K_Latest">Data1!$J$145</definedName>
+    <definedName name="A3484244L">Data1!$K$1:$K$10,Data1!$K$11:$K$145</definedName>
+    <definedName name="A3484244L_Data">Data1!$K$11:$K$145</definedName>
+    <definedName name="A3484244L_Latest">Data1!$K$145</definedName>
+    <definedName name="A3484245R">Data1!$L$1:$L$10,Data1!$L$11:$L$145</definedName>
+    <definedName name="A3484245R_Data">Data1!$L$11:$L$145</definedName>
+    <definedName name="A3484245R_Latest">Data1!$L$145</definedName>
+    <definedName name="A3484246T">Data1!$M$1:$M$10,Data1!$M$11:$M$145</definedName>
+    <definedName name="A3484246T_Data">Data1!$M$11:$M$145</definedName>
+    <definedName name="A3484246T_Latest">Data1!$M$145</definedName>
+    <definedName name="A3484247V">Data1!$N$1:$N$10,Data1!$N$11:$N$145</definedName>
+    <definedName name="A3484247V_Data">Data1!$N$11:$N$145</definedName>
+    <definedName name="A3484247V_Latest">Data1!$N$145</definedName>
+    <definedName name="A3484248W">Data1!$O$1:$O$10,Data1!$O$11:$O$145</definedName>
+    <definedName name="A3484248W_Data">Data1!$O$11:$O$145</definedName>
+    <definedName name="A3484248W_Latest">Data1!$O$145</definedName>
+    <definedName name="A3484249X">Data1!$P$1:$P$10,Data1!$P$11:$P$145</definedName>
+    <definedName name="A3484249X_Data">Data1!$P$11:$P$145</definedName>
+    <definedName name="A3484249X_Latest">Data1!$P$145</definedName>
+    <definedName name="A3484250J">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$145</definedName>
+    <definedName name="A3484250J_Data">Data1!$Q$11:$Q$145</definedName>
+    <definedName name="A3484250J_Latest">Data1!$Q$145</definedName>
+    <definedName name="A3484251K">Data1!$R$1:$R$10,Data1!$R$11:$R$145</definedName>
+    <definedName name="A3484251K_Data">Data1!$R$11:$R$145</definedName>
+    <definedName name="A3484251K_Latest">Data1!$R$145</definedName>
+    <definedName name="A3484252L">Data1!$S$1:$S$10,Data1!$S$11:$S$145</definedName>
+    <definedName name="A3484252L_Data">Data1!$S$11:$S$145</definedName>
+    <definedName name="A3484252L_Latest">Data1!$S$145</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$145</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$145</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1130,10 +1130,10 @@
         <v>32387</v>
       </c>
       <c r="G12" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H12" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>27</v>
@@ -1162,10 +1162,10 @@
         <v>32387</v>
       </c>
       <c r="G13" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H13" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>27</v>
@@ -1194,10 +1194,10 @@
         <v>32387</v>
       </c>
       <c r="G14" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H14" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>27</v>
@@ -1226,10 +1226,10 @@
         <v>32387</v>
       </c>
       <c r="G15" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H15" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>27</v>
@@ -1258,10 +1258,10 @@
         <v>32387</v>
       </c>
       <c r="G16" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H16" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>27</v>
@@ -1290,10 +1290,10 @@
         <v>32387</v>
       </c>
       <c r="G17" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H17" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>27</v>
@@ -1322,10 +1322,10 @@
         <v>32387</v>
       </c>
       <c r="G18" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H18" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>27</v>
@@ -1354,10 +1354,10 @@
         <v>32387</v>
       </c>
       <c r="G19" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H19" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>27</v>
@@ -1386,10 +1386,10 @@
         <v>32387</v>
       </c>
       <c r="G20" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H20" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>27</v>
@@ -1418,10 +1418,10 @@
         <v>32387</v>
       </c>
       <c r="G21" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H21" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>27</v>
@@ -1450,10 +1450,10 @@
         <v>32387</v>
       </c>
       <c r="G22" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H22" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>27</v>
@@ -1482,10 +1482,10 @@
         <v>32387</v>
       </c>
       <c r="G23" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H23" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>27</v>
@@ -1514,10 +1514,10 @@
         <v>32387</v>
       </c>
       <c r="G24" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H24" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>27</v>
@@ -1546,10 +1546,10 @@
         <v>32387</v>
       </c>
       <c r="G25" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H25" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>27</v>
@@ -1578,10 +1578,10 @@
         <v>32387</v>
       </c>
       <c r="G26" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H26" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>27</v>
@@ -1610,10 +1610,10 @@
         <v>32387</v>
       </c>
       <c r="G27" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H27" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>27</v>
@@ -1642,10 +1642,10 @@
         <v>32387</v>
       </c>
       <c r="G28" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H28" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>27</v>
@@ -1674,10 +1674,10 @@
         <v>32387</v>
       </c>
       <c r="G29" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H29" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>27</v>
@@ -1730,7 +1730,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S144"/>
+  <dimension ref="A1:S145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -2159,58 +2159,58 @@
         <v>24</v>
       </c>
       <c r="B8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="D8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="E8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="F8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="G8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="I8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="J8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="K8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="L8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="M8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="N8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="O8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="P8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Q8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="R8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="S8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -2218,58 +2218,58 @@
         <v>25</v>
       </c>
       <c r="B9" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C9" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D9" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E9" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F9" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G9" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H9" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I9" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J9" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K9" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N9" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O9" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P9" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q9" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R9" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="S9" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -9879,43 +9879,43 @@
         <v>975752</v>
       </c>
       <c r="C139" s="8">
-        <v>-6282</v>
+        <v>-6316</v>
       </c>
       <c r="D139" s="8">
-        <v>-23715</v>
+        <v>-23680</v>
       </c>
       <c r="E139" s="8">
         <v>42001</v>
       </c>
       <c r="F139" s="8">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="G139" s="8">
-        <v>990035</v>
+        <v>990037</v>
       </c>
       <c r="H139" s="8">
         <v>-168065</v>
       </c>
       <c r="I139" s="8">
-        <v>-40085</v>
+        <v>-40116</v>
       </c>
       <c r="J139" s="8">
-        <v>-30452</v>
+        <v>-30417</v>
       </c>
       <c r="K139" s="8">
         <v>32700</v>
       </c>
       <c r="L139" s="8">
-        <v>2343</v>
+        <v>2345</v>
       </c>
       <c r="M139" s="8">
-        <v>-203560</v>
+        <v>-203554</v>
       </c>
       <c r="N139" s="8">
         <v>1143817</v>
       </c>
       <c r="O139" s="8">
-        <v>33803</v>
+        <v>33801</v>
       </c>
       <c r="P139" s="8">
         <v>6738</v>
@@ -9924,10 +9924,10 @@
         <v>9301</v>
       </c>
       <c r="R139" s="8">
-        <v>-64</v>
+        <v>-65</v>
       </c>
       <c r="S139" s="8">
-        <v>1193594</v>
+        <v>1193591</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.2">
@@ -9935,46 +9935,46 @@
         <v>44166</v>
       </c>
       <c r="B140" s="8">
-        <v>990035</v>
+        <v>990037</v>
       </c>
       <c r="C140" s="8">
-        <v>-15475</v>
+        <v>-14978</v>
       </c>
       <c r="D140" s="8">
-        <v>-30435</v>
+        <v>-30398</v>
       </c>
       <c r="E140" s="8">
         <v>48419</v>
       </c>
       <c r="F140" s="8">
-        <v>-159</v>
+        <v>-157</v>
       </c>
       <c r="G140" s="8">
-        <v>992385</v>
+        <v>992923</v>
       </c>
       <c r="H140" s="8">
-        <v>-203560</v>
+        <v>-203554</v>
       </c>
       <c r="I140" s="8">
-        <v>-36932</v>
+        <v>-36595</v>
       </c>
       <c r="J140" s="8">
-        <v>-31667</v>
+        <v>-31631</v>
       </c>
       <c r="K140" s="8">
         <v>72201</v>
       </c>
       <c r="L140" s="8">
-        <v>-1236</v>
+        <v>-1233</v>
       </c>
       <c r="M140" s="8">
-        <v>-201194</v>
+        <v>-200812</v>
       </c>
       <c r="N140" s="8">
-        <v>1193594</v>
+        <v>1193591</v>
       </c>
       <c r="O140" s="8">
-        <v>21457</v>
+        <v>21617</v>
       </c>
       <c r="P140" s="8">
         <v>1232</v>
@@ -9983,10 +9983,10 @@
         <v>-23781</v>
       </c>
       <c r="R140" s="8">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="S140" s="8">
-        <v>1193579</v>
+        <v>1193735</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.2">
@@ -9994,58 +9994,58 @@
         <v>44256</v>
       </c>
       <c r="B141" s="8">
-        <v>992385</v>
+        <v>992923</v>
       </c>
       <c r="C141" s="8">
-        <v>-17863</v>
+        <v>-15961</v>
       </c>
       <c r="D141" s="8">
-        <v>-49462</v>
+        <v>-49522</v>
       </c>
       <c r="E141" s="8">
-        <v>2136</v>
+        <v>2031</v>
       </c>
       <c r="F141" s="8">
-        <v>-158</v>
+        <v>-180</v>
       </c>
       <c r="G141" s="8">
-        <v>927038</v>
+        <v>929291</v>
       </c>
       <c r="H141" s="8">
-        <v>-201194</v>
+        <v>-200812</v>
       </c>
       <c r="I141" s="8">
-        <v>-22109</v>
+        <v>-21103</v>
       </c>
       <c r="J141" s="8">
-        <v>-19921</v>
+        <v>-19991</v>
       </c>
       <c r="K141" s="8">
-        <v>-3563</v>
+        <v>-3562</v>
       </c>
       <c r="L141" s="8">
-        <v>597</v>
+        <v>561</v>
       </c>
       <c r="M141" s="8">
-        <v>-246189</v>
+        <v>-244907</v>
       </c>
       <c r="N141" s="8">
-        <v>1193579</v>
+        <v>1193735</v>
       </c>
       <c r="O141" s="8">
-        <v>4246</v>
+        <v>5142</v>
       </c>
       <c r="P141" s="8">
-        <v>-29541</v>
+        <v>-29531</v>
       </c>
       <c r="Q141" s="8">
-        <v>5699</v>
+        <v>5593</v>
       </c>
       <c r="R141" s="8">
-        <v>-755</v>
+        <v>-741</v>
       </c>
       <c r="S141" s="8">
-        <v>1173227</v>
+        <v>1174198</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.2">
@@ -10053,58 +10053,58 @@
         <v>44348</v>
       </c>
       <c r="B142" s="8">
-        <v>927038</v>
+        <v>929291</v>
       </c>
       <c r="C142" s="8">
-        <v>-26582</v>
+        <v>-25965</v>
       </c>
       <c r="D142" s="8">
-        <v>9646</v>
+        <v>9728</v>
       </c>
       <c r="E142" s="8">
-        <v>-15823</v>
+        <v>-15907</v>
       </c>
       <c r="F142" s="8">
-        <v>-244</v>
+        <v>-369</v>
       </c>
       <c r="G142" s="8">
-        <v>894035</v>
+        <v>896778</v>
       </c>
       <c r="H142" s="8">
-        <v>-246189</v>
+        <v>-244907</v>
       </c>
       <c r="I142" s="8">
-        <v>-29351</v>
+        <v>-28803</v>
       </c>
       <c r="J142" s="8">
-        <v>319</v>
+        <v>391</v>
       </c>
       <c r="K142" s="8">
-        <v>-22241</v>
+        <v>-22231</v>
       </c>
       <c r="L142" s="8">
-        <v>-68</v>
+        <v>-191</v>
       </c>
       <c r="M142" s="8">
-        <v>-297530</v>
+        <v>-295741</v>
       </c>
       <c r="N142" s="8">
-        <v>1173227</v>
+        <v>1174198</v>
       </c>
       <c r="O142" s="8">
-        <v>2769</v>
+        <v>2838</v>
       </c>
       <c r="P142" s="8">
-        <v>9327</v>
+        <v>9337</v>
       </c>
       <c r="Q142" s="8">
-        <v>6418</v>
+        <v>6324</v>
       </c>
       <c r="R142" s="8">
-        <v>-176</v>
+        <v>-178</v>
       </c>
       <c r="S142" s="8">
-        <v>1191565</v>
+        <v>1192519</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.2">
@@ -10112,58 +10112,58 @@
         <v>44440</v>
       </c>
       <c r="B143" s="8">
-        <v>894035</v>
+        <v>896778</v>
       </c>
       <c r="C143" s="8">
-        <v>-15226</v>
+        <v>-15443</v>
       </c>
       <c r="D143" s="8">
-        <v>13158</v>
+        <v>12073</v>
       </c>
       <c r="E143" s="8">
-        <v>-14330</v>
+        <v>-13778</v>
       </c>
       <c r="F143" s="8">
-        <v>988</v>
+        <v>263</v>
       </c>
       <c r="G143" s="8">
-        <v>878625</v>
+        <v>879893</v>
       </c>
       <c r="H143" s="8">
-        <v>-297530</v>
+        <v>-295741</v>
       </c>
       <c r="I143" s="8">
-        <v>-19821</v>
+        <v>-20232</v>
       </c>
       <c r="J143" s="8">
-        <v>15565</v>
+        <v>14486</v>
       </c>
       <c r="K143" s="8">
-        <v>-27725</v>
+        <v>-27173</v>
       </c>
       <c r="L143" s="8">
-        <v>359</v>
+        <v>-541</v>
       </c>
       <c r="M143" s="8">
-        <v>-329153</v>
+        <v>-329200</v>
       </c>
       <c r="N143" s="8">
-        <v>1191565</v>
+        <v>1192519</v>
       </c>
       <c r="O143" s="8">
-        <v>4596</v>
+        <v>4789</v>
       </c>
       <c r="P143" s="8">
-        <v>-2407</v>
+        <v>-2413</v>
       </c>
       <c r="Q143" s="8">
         <v>13395</v>
       </c>
       <c r="R143" s="8">
-        <v>629</v>
+        <v>804</v>
       </c>
       <c r="S143" s="8">
-        <v>1207778</v>
+        <v>1209093</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.2">
@@ -10171,58 +10171,117 @@
         <v>44531</v>
       </c>
       <c r="B144" s="8">
-        <v>878625</v>
+        <v>879893</v>
       </c>
       <c r="C144" s="8">
-        <v>-6290</v>
+        <v>-11286</v>
       </c>
       <c r="D144" s="8">
-        <v>-70423</v>
+        <v>-65559</v>
       </c>
       <c r="E144" s="8">
-        <v>9165</v>
+        <v>8560</v>
       </c>
       <c r="F144" s="8">
-        <v>-1682</v>
+        <v>-1867</v>
       </c>
       <c r="G144" s="8">
-        <v>809396</v>
+        <v>809742</v>
       </c>
       <c r="H144" s="8">
-        <v>-329153</v>
+        <v>-329200</v>
       </c>
       <c r="I144" s="8">
-        <v>-30327</v>
+        <v>-34396</v>
       </c>
       <c r="J144" s="8">
-        <v>-47167</v>
+        <v>-42475</v>
       </c>
       <c r="K144" s="8">
-        <v>12842</v>
+        <v>11916</v>
       </c>
       <c r="L144" s="8">
         <v>-1655</v>
       </c>
       <c r="M144" s="8">
-        <v>-395459</v>
+        <v>-395810</v>
       </c>
       <c r="N144" s="8">
-        <v>1207778</v>
+        <v>1209093</v>
       </c>
       <c r="O144" s="8">
-        <v>24037</v>
+        <v>23110</v>
       </c>
       <c r="P144" s="8">
-        <v>-23256</v>
+        <v>-23083</v>
       </c>
       <c r="Q144" s="8">
-        <v>-3677</v>
+        <v>-3356</v>
       </c>
       <c r="R144" s="8">
-        <v>-27</v>
+        <v>-212</v>
       </c>
       <c r="S144" s="8">
-        <v>1204855</v>
+        <v>1205552</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A145" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B145" s="8">
+        <v>809742</v>
+      </c>
+      <c r="C145" s="8">
+        <v>-2733</v>
+      </c>
+      <c r="D145" s="8">
+        <v>-18357</v>
+      </c>
+      <c r="E145" s="8">
+        <v>41993</v>
+      </c>
+      <c r="F145" s="8">
+        <v>-9323</v>
+      </c>
+      <c r="G145" s="8">
+        <v>821322</v>
+      </c>
+      <c r="H145" s="8">
+        <v>-395810</v>
+      </c>
+      <c r="I145" s="8">
+        <v>916</v>
+      </c>
+      <c r="J145" s="8">
+        <v>38185</v>
+      </c>
+      <c r="K145" s="8">
+        <v>58986</v>
+      </c>
+      <c r="L145" s="8">
+        <v>-9672</v>
+      </c>
+      <c r="M145" s="8">
+        <v>-307395</v>
+      </c>
+      <c r="N145" s="8">
+        <v>1205552</v>
+      </c>
+      <c r="O145" s="8">
+        <v>-3649</v>
+      </c>
+      <c r="P145" s="8">
+        <v>-56541</v>
+      </c>
+      <c r="Q145" s="8">
+        <v>-16994</v>
+      </c>
+      <c r="R145" s="8">
+        <v>349</v>
+      </c>
+      <c r="S145" s="8">
+        <v>1128716</v>
       </c>
     </row>
   </sheetData>
